--- a/p2022/data/교사 변수 추출_1106.xlsx
+++ b/p2022/data/교사 변수 추출_1106.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gslee\Documents\GitHub\pisa\p2022\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEE822B-56BB-4444-B079-E12AC1734A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEE7355-669D-49FB-934E-86A19B37BE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="30912" windowHeight="25296" xr2:uid="{123A7565-753A-451B-883C-286E6FDDEC5A}"/>
+    <workbookView xWindow="30624" yWindow="0" windowWidth="30912" windowHeight="25296" xr2:uid="{123A7565-753A-451B-883C-286E6FDDEC5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4536,8 +4536,8 @@
   <dimension ref="A1:E528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C389" sqref="C389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
